--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr2_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr2_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.64453125" customWidth="true"/>
-    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="15.77734375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29486879776730746</v>
+        <v>0.29024304835761255</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29495253763028956</v>
+        <v>0.28930541399418097</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>9.7748966843536655e-05</v>
+        <v>-0.0052455371168811382</v>
       </c>
       <c r="E3" s="0">
-        <v>8.2411106741789365e-05</v>
+        <v>-0.00014769779747891948</v>
       </c>
       <c r="F3" s="0">
-        <v>0.00048716744538401281</v>
+        <v>-0.00036714306986223861</v>
       </c>
       <c r="G3" s="0">
-        <v>-1.2803076600494403e-05</v>
+        <v>-0.00025345890231253645</v>
       </c>
       <c r="H3" s="0">
-        <v>1.5777453618175152e-05</v>
+        <v>3.7082257384618327e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-4.3376408103801461e-06</v>
+        <v>7.7641277366601735e-08</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>7.7965563882731459e-07</v>
+        <v>-2.194351012174689e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29194585542473872</v>
+        <v>0.29867716825012003</v>
       </c>
       <c r="C4" s="0">
-        <v>0.00083737017170104123</v>
+        <v>0.0065989003140745437</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-1.9938503518681051e-06</v>
+        <v>-4.6638552659134541e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-1.5941866420350225e-05</v>
+        <v>-1.3198676655936466e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-2.0834842439921277e-06</v>
+        <v>0.00020968419938015891</v>
       </c>
       <c r="I4" s="0">
-        <v>-2.6817209630271699e-05</v>
+        <v>-0.00065848347918233039</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00034595730507326925</v>
+        <v>0.0028526301968664213</v>
       </c>
       <c r="K4" s="0">
-        <v>1.8792583639237748e-07</v>
+        <v>3.8666345048010697e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.2908483873000835</v>
+        <v>0.29786666036096704</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00053505200579129762</v>
+        <v>-0.0029361138879313632</v>
       </c>
       <c r="E5" s="0">
-        <v>-5.1854064950941647e-05</v>
+        <v>-0.0012264259332025148</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00034745198982435641</v>
+        <v>0.0014323113802256445</v>
       </c>
       <c r="G5" s="0">
-        <v>-4.7180291824994146e-06</v>
+        <v>7.4725520155290761e-05</v>
       </c>
       <c r="H5" s="0">
-        <v>3.5215105754251309e-06</v>
+        <v>0.00018578385978718513</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00012376484387146148</v>
+        <v>-7.5249041508745968e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>1.8783474914907394e-06</v>
+        <v>0.00040081536563496556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.28930167807862633</v>
+        <v>0.32038753045849161</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0010957798058777708</v>
+        <v>-0.0096525846483997355</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-7.0198260147473407e-08</v>
+        <v>6.2663434214408251e-06</v>
       </c>
       <c r="F6" s="0">
-        <v>-6.1492843138799392e-05</v>
+        <v>0.00020762867863823926</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.6481519295996744e-05</v>
+        <v>0.00019096895498199121</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00026407162549029844</v>
+        <v>0.0014293066043388879</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-6.2226511166052489e-09</v>
+        <v>-2.8783939146070914e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29052288509689461</v>
+        <v>0.32355527914012416</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0004095901611346405</v>
+        <v>-0.0057033122443097438</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00038409984794467693</v>
+        <v>0.00025610445746612206</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00012630871167652758</v>
+        <v>0.0013216952292327451</v>
       </c>
       <c r="G7" s="0">
-        <v>2.5467019027882716e-05</v>
+        <v>0.0028286664371489586</v>
       </c>
       <c r="H7" s="0">
-        <v>1.3623514756672248e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-4.883987237733824e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-3.2360835862665915e-06</v>
+        <v>-9.0908049441451588e-05</v>
       </c>
     </row>
     <row r="8">
